--- a/Data Sources/MANUAL/RenHeatCapOutput.xlsx
+++ b/Data Sources/MANUAL/RenHeatCapOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/ScottishEnergyStatsProcessing/Data Sources/MANUAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81680412-E938-40D4-AEC4-72758B3D4CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5413EC05-4968-444E-9546-907E9D67051A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Technology</t>
   </si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>% Renewable heat capacity</t>
+  </si>
+  <si>
+    <t>Biomethane</t>
   </si>
 </sst>
 </file>
@@ -116,11 +113,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A88EC0-75A4-4313-AECB-883EFC57A2DA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A16" sqref="A16:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
@@ -484,25 +480,25 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1.2609999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="1">
         <v>0.63</v>
       </c>
       <c r="D2">
-        <v>3088</v>
+        <v>2906</v>
       </c>
       <c r="E2" s="1">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2">
-        <v>8400</v>
+        <v>8550</v>
       </c>
       <c r="G2" s="1">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -510,25 +506,25 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.40300000000000002</v>
+        <v>0.37</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D3">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="E3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -536,266 +532,312 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.123</v>
+        <v>0.11</v>
       </c>
       <c r="C4" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>1027</v>
+        <v>383</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1">
         <v>0.01</v>
       </c>
       <c r="H4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>340</v>
+        <v>716</v>
       </c>
       <c r="E5" s="1">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5">
-        <v>13250</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
-        <v>0.52</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>3.6999999999999998E-2</v>
+        <v>0.24</v>
       </c>
       <c r="C6" s="1">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>408</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.08</v>
       </c>
       <c r="F6">
-        <v>3690</v>
+        <v>17140</v>
       </c>
       <c r="G6" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>2.0099999999999998</v>
+        <v>0.04</v>
       </c>
       <c r="C7" s="1">
-        <f>SUM(C2:C6)</f>
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <f>SUM(D2:D6)</f>
-        <v>5230</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:G7" si="0">SUM(E2:E6)</f>
-        <v>0.99990000000000001</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F7">
-        <v>25550</v>
+        <v>4560</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000100000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.232</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2677</v>
+        <v>5205</v>
       </c>
       <c r="E8" s="1">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>8180</v>
+        <v>30450</v>
       </c>
       <c r="G8" s="1">
-        <v>0.36</v>
+        <v>1.0000100000000001</v>
       </c>
       <c r="H8">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.39500000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="C9" s="1">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="D9">
-        <v>685</v>
+        <v>2915</v>
       </c>
       <c r="E9" s="1">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>8430</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.3</v>
       </c>
       <c r="H9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.115</v>
+        <v>0.38</v>
       </c>
       <c r="C10" s="1">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="D10">
-        <v>904</v>
+        <v>730</v>
       </c>
       <c r="E10" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.159</v>
+        <v>0.12</v>
       </c>
       <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D11">
+        <v>387</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.08</v>
       </c>
-      <c r="D11">
-        <v>284</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.06</v>
-      </c>
       <c r="F11">
-        <v>11310</v>
+        <v>170</v>
       </c>
       <c r="G11" s="1">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1E-3</v>
+        <v>569</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.11</v>
       </c>
       <c r="F12">
-        <v>3340</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>0.15</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D13">
+        <v>345</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F13">
+        <v>14670</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F14">
+        <v>4430</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="C13" s="1">
-        <f>SUM(C8:C12)</f>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>4569</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13" si="1">SUM(E8:E12)</f>
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="F13">
-        <v>23010</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="D15">
+        <v>4966</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>2017</v>
+      <c r="F15">
+        <v>27720</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15" si="0">SUM(G9:G14)</f>
+        <v>1.000011</v>
+      </c>
+      <c r="H15">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>

--- a/Data Sources/MANUAL/RenHeatCapOutput.xlsx
+++ b/Data Sources/MANUAL/RenHeatCapOutput.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5413EC05-4968-444E-9546-907E9D67051A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A7965-CE12-4F76-A0BB-9AC6CBA3E737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E1271A3-F2C3-4F6F-8BD2-847D01D72DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Technology</t>
   </si>
@@ -48,21 +59,9 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>Biomass CHP</t>
-  </si>
-  <si>
-    <t>Energy from waste</t>
-  </si>
-  <si>
     <t>Heat pump</t>
   </si>
   <si>
-    <t>Solar Thermal</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -70,20 +69,28 @@
   </si>
   <si>
     <t>Biomethane</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>Bioliquid</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,18 +116,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,24 +436,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A88EC0-75A4-4313-AECB-883EFC57A2DA}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -472,372 +476,471 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>9.4259822657516409E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/$B$9</f>
+        <v>4.1133563802069353E-2</v>
+      </c>
+      <c r="D2">
+        <v>282.83179802847087</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/$D$9</f>
+        <v>5.0221760211957546E-2</v>
+      </c>
+      <c r="F2">
+        <v>170</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2/$F$9</f>
+        <v>3.9412064728520423E-3</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>5.0954622705761256E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:E9" si="0">B3/$B$9</f>
+        <v>2.2235828213821373E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.0660735732073927</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:G17" si="1">D3/$D$9</f>
+        <v>1.8930011312425665E-4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="2">F3/$F$9</f>
+        <v>2.3183567487364956E-5</v>
+      </c>
+      <c r="H3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1.28</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="D2">
-        <v>2906</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F2">
-        <v>8550</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.37</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="D3">
-        <v>772</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>0.11</v>
+        <v>1.8076607705757344</v>
       </c>
       <c r="C4" s="1">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>0.78883587452883464</v>
       </c>
       <c r="D4">
-        <v>383</v>
+        <v>3749.9547807686163</v>
       </c>
       <c r="E4" s="1">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.66587042587936796</v>
       </c>
       <c r="F4">
-        <v>170</v>
+        <v>8588</v>
       </c>
       <c r="G4" s="1">
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>0.19910047758149024</v>
       </c>
       <c r="H4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <v>716</v>
+        <v>920.02368000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.14000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.16336638584616139</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>4.1730421477256921E-4</v>
       </c>
       <c r="H5">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>0.35537765483346451</v>
       </c>
       <c r="C6" s="1">
-        <v>0.12</v>
+        <f t="shared" si="0"/>
+        <v>0.15508144431838095</v>
       </c>
       <c r="D6">
-        <v>408</v>
+        <v>643.20491860256629</v>
       </c>
       <c r="E6" s="1">
-        <v>0.08</v>
+        <f t="shared" si="1"/>
+        <v>0.11421234604589273</v>
       </c>
       <c r="F6">
-        <v>17140</v>
+        <v>28607</v>
       </c>
       <c r="G6" s="1">
-        <v>0.56000000000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.66321231511104928</v>
       </c>
       <c r="H6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2.1982802968911742E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5929633960322985E-3</v>
+      </c>
+      <c r="D7">
+        <v>11.507124363758351</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0432923191602104E-3</v>
+      </c>
+      <c r="F7">
+        <v>5747</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13323596234988641</v>
+      </c>
+      <c r="H7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1.1764375000000001E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1337956725444993E-3</v>
+      </c>
+      <c r="D8">
+        <v>23.070029999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0964895843360449E-3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9550702462094864E-5</v>
+      </c>
+      <c r="H8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2.2915549722626847</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5631.6584053366187</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>43134</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9.2647822657516393E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:E16" si="3">B10/$B$17</f>
+        <v>4.1619347066628815E-2</v>
+      </c>
+      <c r="D10">
+        <v>278.7334513384709</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10/$D$17</f>
+        <v>5.1425368729992711E-2</v>
+      </c>
+      <c r="F10">
+        <v>165</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F10/$F$17</f>
+        <v>4.1574279379157425E-3</v>
+      </c>
+      <c r="H10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>5.0954622705761256E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2889886305041551E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.0660735732073927</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:G17" si="4">D11/$D$17</f>
+        <v>1.9668692915124223E-4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G17" si="5">F11/$F$17</f>
+        <v>2.5196532957065108E-5</v>
+      </c>
+      <c r="H11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1.7853394705757317</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.80201197315039641</v>
+      </c>
+      <c r="D12">
+        <v>3666.9864734840971</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6765464662432068</v>
+      </c>
+      <c r="F12">
+        <v>8487</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21384297520661158</v>
+      </c>
+      <c r="H12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0.04</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="F7">
-        <v>4560</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H7">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>868.12630699999977</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16016633535481251</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0314452731304173E-4</v>
+      </c>
+      <c r="H13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.31416477478399901</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14112941268117052</v>
+      </c>
+      <c r="D14">
+        <v>570.87453156492552</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10532439914662024</v>
+      </c>
+      <c r="F14">
+        <v>25370</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63923604112074184</v>
+      </c>
+      <c r="H14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.1649842968911044E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.7255639972454472E-3</v>
+      </c>
+      <c r="D15">
+        <v>11.297780873758379</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0844019419763667E-3</v>
+      </c>
+      <c r="F15">
+        <v>5646</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14225962507558959</v>
+      </c>
+      <c r="H15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.1764375000000001E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="3"/>
+        <v>5.284804241508516E-3</v>
+      </c>
+      <c r="D16">
+        <v>23.070029999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2563416542399351E-3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>7.5589598871195321E-5</v>
+      </c>
+      <c r="H16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.2260758322132155</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B17/$B$17</f>
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>5205</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D17">
+        <v>5420.1546478344599</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>30450</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.0000100000000001</v>
-      </c>
-      <c r="H8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1.28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="D9">
-        <v>2915</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="F9">
-        <v>8430</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.38</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="D10">
-        <v>730</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0.12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D11">
-        <v>387</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F11">
-        <v>170</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H11">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>569</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0.19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D13">
-        <v>345</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F13">
-        <v>14670</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="H13">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0.04</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="F14">
-        <v>4430</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H14">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="F17">
+        <v>39688</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>4966</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>27720</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ref="G15" si="0">SUM(G9:G14)</f>
-        <v>1.000011</v>
-      </c>
-      <c r="H15">
-        <v>2018</v>
+      <c r="H17">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
